--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto.xlsx
@@ -983,7 +983,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>399.9418901743472</v>
+        <v>399.9418901743473</v>
       </c>
       <c r="C37">
         <v>559.3892950684125</v>
